--- a/results/pvalue_OFFSIDES_rare_target_AUPRperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_target_AUPRperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.301</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.536</t>
+          <t>0.701</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.695</t>
+          <t>5.803</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.186</t>
+          <t>2.669</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.677</t>
+          <t>-0.413</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.484</t>
+          <t>-2.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.971</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.366</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
